--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,13 +88,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -464,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,10 +466,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -536,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -554,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -583,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -601,19 +595,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -625,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -633,13 +627,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,19 +645,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -675,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -683,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -701,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.7017543859649122</v>
@@ -733,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -751,31 +745,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>26</v>
-      </c>
-      <c r="K7">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -801,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -854,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.4833333333333333</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +877,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -901,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.06648451730418943</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -933,13 +927,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5507246376811594</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -959,13 +953,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4615384615384616</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -977,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -985,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4468085106382979</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1003,59 +997,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
